--- a/BalanceSheet/AZO_bal.xlsx
+++ b/BalanceSheet/AZO_bal.xlsx
@@ -514,22 +514,22 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-104796000.0</v>
+        <v>4737000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-124746000.0</v>
+        <v>4628000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-8890000.0</v>
+        <v>4473000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4440602000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>86950000.0</v>
+        <v>4441000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-129028000.0</v>
+        <v>4606000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>4463124000.0</v>
@@ -1890,22 +1890,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>160267000.0</v>
+        <v>5351000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>56273000.0</v>
+        <v>5282000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>510224000.0</v>
+        <v>5156000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>4806329000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>14336000.0</v>
+        <v>4806000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-41699000.0</v>
+        <v>4870000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>4922148000.0</v>
@@ -3088,22 +3088,22 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-12067000.0</v>
+        <v>328000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>10295000.0</v>
+        <v>340000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>26796000.0</v>
+        <v>326000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>325919000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>13127000.0</v>
+        <v>303000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>9214000.0</v>
+        <v>297000000.0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>315602000.0</v>
